--- a/Data/Pre and Post/Pre_Post_Stacked.xlsx
+++ b/Data/Pre and Post/Pre_Post_Stacked.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviarandell/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F79A4128-5565-7544-B601-89BE33AFADA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92432A88-764A-9446-B7B8-2AB261874788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14460" yWindow="500" windowWidth="12660" windowHeight="15960" activeTab="1" xr2:uid="{DE2E1B36-43E4-254A-A049-873EBAF2C466}"/>
+    <workbookView xWindow="14460" yWindow="500" windowWidth="12660" windowHeight="15940" firstSheet="1" activeTab="2" xr2:uid="{DE2E1B36-43E4-254A-A049-873EBAF2C466}"/>
   </bookViews>
   <sheets>
     <sheet name="PreSurvey Data" sheetId="1" r:id="rId1"/>
     <sheet name="Post Survey Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Enjoyment " sheetId="3" r:id="rId3"/>
+    <sheet name="Experience" sheetId="5" r:id="rId3"/>
     <sheet name="Skill Level" sheetId="4" r:id="rId4"/>
+    <sheet name="Enjoyment " sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="36">
   <si>
     <t>Experience</t>
   </si>
@@ -113,6 +114,42 @@
   </si>
   <si>
     <t xml:space="preserve">Post Skill Level </t>
+  </si>
+  <si>
+    <t>Enjoy_Code</t>
+  </si>
+  <si>
+    <t>I liked it a great deal</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>I liked it a little</t>
+  </si>
+  <si>
+    <t>I disliked it a little</t>
+  </si>
+  <si>
+    <t>I disliked it a great deal</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Stage</t>
+  </si>
+  <si>
+    <t>How would you rate your coding skills?</t>
+  </si>
+  <si>
+    <t>Prior to the summer camp</t>
+  </si>
+  <si>
+    <t>After the Summer Camp</t>
   </si>
 </sst>
 </file>
@@ -494,1040 +531,1656 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE355D2E-BC5E-5542-A2BC-9ACC77CD1A46}">
-  <dimension ref="A1:A205"/>
+  <dimension ref="A1:B205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B37" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B38" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B40" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B43" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B45" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B46" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B47" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B48" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B49" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B50" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B51" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B52" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B53" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B54" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B55" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B56" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B57" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B58" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B59" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B60" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B61" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B62" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B63" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B64" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B65" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B66" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B67" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B68" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B69" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B70" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B71" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B72" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B73" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B74" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B75" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B76" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B77" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B78" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B79" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B80" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B81" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B82" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B83" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B84" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B85" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B86" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B87" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B88" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B89" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B90" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B91" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B92" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B93" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B94" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B95" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B96" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B97" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B98" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B99" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B100" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B101" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B102" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B103" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B104" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B105" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B106" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B107" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B108" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B109" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B110" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B111" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B112" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B113" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B114" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B115" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B116" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B117" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B118" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B119" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B120" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B121" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B122" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B123" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B124" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B125" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B126" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B127" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B128" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B129" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B130" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B131" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B132" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B133" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B134" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B135" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B136" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B137" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B138" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B139" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B140" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B141" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B142" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B143" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B144" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B145" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B146" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B147" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B148" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B149" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B150" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B151" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B152" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B153" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B154" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B155" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B156" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B157" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B158" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B159" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B160" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B161" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B162" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B163" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B164" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B165" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B166" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B167" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B168" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B169" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B170" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B171" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B172" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B173" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B174" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B175" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B176" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B177" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B178" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B179" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B180" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B181" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B182" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B183" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B184" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B185" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B186" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B187" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B188" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B189" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B190" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B191" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B192" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B193" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B194" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B195" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B196" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B197" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B198" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B199" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B200" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B201" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B202" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B203" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B204" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>1</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1539,8 +2192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46268E62-5076-4547-AF4B-0BF128D37751}">
   <dimension ref="A1:O139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5:O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1631,15 +2284,13 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F5">
-        <f>COUNTIF(A3:A139, "A lot of experience")</f>
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G5">
-        <f>F5/F9*100</f>
-        <v>16.788321167883211</v>
+        <v>13.138686131386862</v>
       </c>
       <c r="I5" t="s">
         <v>19</v>
@@ -1675,14 +2326,12 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6">
-        <f>COUNTIF(A3:A140, "Some experience")</f>
         <v>48</v>
       </c>
       <c r="G6">
-        <f>F6/F9*100</f>
         <v>35.036496350364963</v>
       </c>
       <c r="I6" t="s">
@@ -1719,14 +2368,12 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F7">
-        <f>COUNTIF(A3:A139, "A little experience")</f>
         <v>48</v>
       </c>
       <c r="G7">
-        <f>F7/F9*100</f>
         <v>35.036496350364963</v>
       </c>
       <c r="I7" t="s">
@@ -1763,15 +2410,13 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <f>COUNTIF(A3:A139, "No experience")</f>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G8">
-        <f>F8/F9*100</f>
-        <v>13.138686131386862</v>
+        <v>16.788321167883211</v>
       </c>
       <c r="I8" t="s">
         <v>22</v>
@@ -3264,6 +3909,263 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46893F4E-775D-954A-B2D3-1C6D63459251}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>13.138686131386862</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>48</v>
+      </c>
+      <c r="D3">
+        <v>35.036496350364963</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>48</v>
+      </c>
+      <c r="D4">
+        <v>35.036496350364963</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>16.788321167883211</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6CC23A4-8E96-A649-81F3-A5CEA911328A}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2">
+        <v>28</v>
+      </c>
+      <c r="E2">
+        <v>20.437956204379564</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>67</v>
+      </c>
+      <c r="E3">
+        <v>48.9051094890511</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>33</v>
+      </c>
+      <c r="E4">
+        <v>24.087591240875913</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>6.5693430656934311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>2.9197080291970803</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>13.138686131386862</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8">
+        <v>75</v>
+      </c>
+      <c r="E8">
+        <v>54.744525547445257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9">
+        <v>40</v>
+      </c>
+      <c r="E9">
+        <v>29.197080291970799</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD4011A4-3C27-B84D-8C18-61A02D2BE426}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3273,16 +4175,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6CC23A4-8E96-A649-81F3-A5CEA911328A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Data/Pre and Post/Pre_Post_Stacked.xlsx
+++ b/Data/Pre and Post/Pre_Post_Stacked.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviarandell/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviarandell/Documents/GitHub/GGEESummer23/Data/Pre and Post/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92432A88-764A-9446-B7B8-2AB261874788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8AC346-4A2A-3749-BCD1-E7FE05FA1F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14460" yWindow="500" windowWidth="12660" windowHeight="15940" firstSheet="1" activeTab="2" xr2:uid="{DE2E1B36-43E4-254A-A049-873EBAF2C466}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="44">
   <si>
     <t>Experience</t>
   </si>
@@ -146,10 +146,34 @@
     <t>How would you rate your coding skills?</t>
   </si>
   <si>
-    <t>Prior to the summer camp</t>
-  </si>
-  <si>
-    <t>After the Summer Camp</t>
+    <t>0-None</t>
+  </si>
+  <si>
+    <t>1-Basic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-Medium </t>
+  </si>
+  <si>
+    <t>3-High</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre- Summer Program </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Post- Summer Program </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-No experience </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-A little experience </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-Some experience </t>
+  </si>
+  <si>
+    <t>4-A lot of experience</t>
   </si>
 </sst>
 </file>
@@ -3913,7 +3937,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3937,7 +3961,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C2">
         <v>18</v>
@@ -3951,7 +3975,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C3">
         <v>48</v>
@@ -3965,7 +3989,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C4">
         <v>48</v>
@@ -3979,7 +4003,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="C5">
         <v>23</v>
@@ -3998,7 +4022,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4029,10 +4053,10 @@
         <v>33</v>
       </c>
       <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
         <v>34</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
       </c>
       <c r="D2">
         <v>28</v>
@@ -4046,10 +4070,10 @@
         <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D3">
         <v>67</v>
@@ -4063,10 +4087,10 @@
         <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D4">
         <v>33</v>
@@ -4080,10 +4104,10 @@
         <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D5">
         <v>9</v>
@@ -4097,10 +4121,10 @@
         <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -4114,10 +4138,10 @@
         <v>33</v>
       </c>
       <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
         <v>35</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
       </c>
       <c r="D7">
         <v>18</v>
@@ -4131,10 +4155,10 @@
         <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D8">
         <v>75</v>
@@ -4148,10 +4172,10 @@
         <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D9">
         <v>40</v>
